--- a/xlsx/君主论_intext.xlsx
+++ b/xlsx/君主论_intext.xlsx
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E5%80%AB%E6%96%AF</t>
   </si>
   <si>
-    <t>佛羅倫斯</t>
+    <t>佛罗伦斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%96%87</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AF%AD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%9F%BA%E9%9B%85%E7%B6%AD%E5%88%A9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬基雅維利主義</t>
+    <t>马基雅维利主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%9B%86%E6%9D%83</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%96%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>神聖羅馬帝國</t>
+    <t>神圣罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%9C%8B</t>
   </si>
   <si>
-    <t>君主國</t>
+    <t>君主国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7</t>
@@ -227,31 +227,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%98%AD%E5%85%AC%E7%88%B5</t>
   </si>
   <si>
-    <t>米蘭公爵</t>
+    <t>米兰公爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E8%AB%96</t>
   </si>
   <si>
-    <t>資本論</t>
+    <t>资本论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E4%B8%80%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E8%98%AD)</t>
   </si>
   <si>
-    <t>查理一世 (英格蘭)</t>
+    <t>查理一世 (英格兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E5%BC%97%C2%B7%E5%85%8B%E5%80%AB%E5%A8%81%E7%88%BE</t>
   </si>
   <si>
-    <t>奧利弗·克倫威爾</t>
+    <t>奥利弗·克伦威尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%E5%9B%9B%E4%B8%96_(%E6%B3%95%E5%85%B0%E8%A5%BF)</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
